--- a/CIK-codes-test.xlsx
+++ b/CIK-codes-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Python\GWI_scrapers\SEC-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D8C8A-04F0-4E3D-B055-7A1D7819B471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7E8C1-D7C7-43E7-AC00-999E090C0B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83A88DD0-8E77-432A-8680-F1484B1A3318}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
